--- a/data/trans_orig/P70A04_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7700E93-D7BE-48AC-9BBE-7B225DF5A127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B8895B-974D-4093-9A36-CC8DE90582F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63F35557-9150-4800-8849-A2F46860F902}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4B79DFD-4A04-43D7-8345-663236B91169}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>63,51%</t>
   </si>
   <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>36,49%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>60,85%</t>
   </si>
   <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
   </si>
   <si>
     <t>49,57%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>50,43%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>62,67%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>62,46%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>62,58%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>37,42%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF71E7-357B-4C33-A27A-9D6F066BBC42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFADD3-C525-48B0-B148-AB7F8B88DCC9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A04_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B8895B-974D-4093-9A36-CC8DE90582F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D37FE4-E842-40D5-A49C-0554C55CD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4B79DFD-4A04-43D7-8345-663236B91169}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D533D03-9524-44A8-BCAA-C8EC7F91CAA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>63,51%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>36,49%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>60,85%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>49,57%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>50,43%</t>
   </si>
   <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>62,67%</t>
   </si>
   <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>62,46%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>62,58%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
   </si>
   <si>
     <t>37,42%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFADD3-C525-48B0-B148-AB7F8B88DCC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DABF7BD-AD2C-49C9-BCAE-1603EB282C10}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A04_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D37FE4-E842-40D5-A49C-0554C55CD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78BC3FC8-9EA0-4323-9ED1-72833D649314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D533D03-9524-44A8-BCAA-C8EC7F91CAA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D40267A8-21E4-4B0C-9DEB-E7A137829D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,25 +68,25 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>63,51%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>56,09%</t>
@@ -95,7 +95,7 @@
     <t>51,11%</t>
   </si>
   <si>
-    <t>60,87%</t>
+    <t>60,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,25 +104,25 @@
     <t>36,49%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>39,13%</t>
+    <t>39,22%</t>
   </si>
   <si>
     <t>48,89%</t>
@@ -137,55 +137,55 @@
     <t>60,85%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>49,57%</t>
   </si>
   <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
   </si>
   <si>
     <t>50,43%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>62,67%</t>
   </si>
   <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>62,46%</t>
   </si>
   <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>62,58%</t>
   </si>
   <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
   </si>
   <si>
     <t>37,42%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DABF7BD-AD2C-49C9-BCAE-1603EB282C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540A5F90-5BF8-43F3-8E3F-42748A9B77C8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A04_2007-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78BC3FC8-9EA0-4323-9ED1-72833D649314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A71761-8307-4C59-BD5D-7B0A6C78E92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D40267A8-21E4-4B0C-9DEB-E7A137829D2D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CB57ED81-951F-4A5A-A4C7-3D2C2A9830D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540A5F90-5BF8-43F3-8E3F-42748A9B77C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE25548E-A877-4769-B270-CBBE3A09DC47}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
